--- a/master_table/MT_OntoWorldMap_2024-06-03.xlsx
+++ b/master_table/MT_OntoWorldMap_2024-06-03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="9" activeTab="25"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="25" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -38,6 +38,8 @@
     <sheet name="OM" sheetId="39" r:id="rId24"/>
     <sheet name="OBI" sheetId="40" r:id="rId25"/>
     <sheet name="RO" sheetId="41" r:id="rId26"/>
+    <sheet name="eNanoMapper" sheetId="42" r:id="rId27"/>
+    <sheet name="OEO" sheetId="44" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$97</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="555">
   <si>
     <t>Ontology</t>
   </si>
@@ -1728,9 +1730,6 @@
     <t>RO</t>
   </si>
   <si>
-    <t>The OBO Relations Ontology (RO) is a collection of OWL relations (ObjectProperties) intended for use across a wide variety of biological ontologies.</t>
-  </si>
-  <si>
     <t>https://github.com/oborel/obo-relations</t>
   </si>
   <si>
@@ -1755,7 +1754,43 @@
     <t>cito,core,dc,doap,foaf,obo,oboInOwl,owl,rdf,rdfs,skos,subsets,swrl,swrla,swrlb,terms,xml,xsd</t>
   </si>
   <si>
-    <t>Version: 2024-04-24</t>
+    <t>eNanoMapper</t>
+  </si>
+  <si>
+    <t>Open Energy Ontology</t>
+  </si>
+  <si>
+    <t>OEO</t>
+  </si>
+  <si>
+    <t>Ontology is still actively maintained</t>
+  </si>
+  <si>
+    <t>Open Energy Familiy</t>
+  </si>
+  <si>
+    <t>omn / owl Manchester Syntax</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/OpenEnergyPlatform/ontology/refs/heads/master/src/ontology/oeo.omn</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenEnergyPlatform/ontology</t>
+  </si>
+  <si>
+    <t>51268 ms</t>
+  </si>
+  <si>
+    <t>bfo,dc,dct,obda,owl,rdf,rdfs,xml,xsd</t>
+  </si>
+  <si>
+    <t>https://openenergyplatform.org/</t>
+  </si>
+  <si>
+    <t>https://openenergyplatform.org/ontology/</t>
+  </si>
+  <si>
+    <t>modular ontology. The Open Energy Ontology is an ontology for all aspects of the energy modelling domain.</t>
   </si>
 </sst>
 </file>
@@ -2578,10 +2613,10 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -2624,7 +2659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2639,7 +2674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2774,7 +2809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +2949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -2991,7 +3026,7 @@
     <row r="90" spans="1:1">
       <c r="A90" s="38"/>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -3100,10 +3135,10 @@
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -3161,7 +3196,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3211,12 +3246,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30">
+    <row r="23" spans="1:1" ht="28.8">
       <c r="A23" s="39" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3311,7 +3346,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3471,8 +3506,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="79" spans="1:1" ht="29.25" thickBot="1">
+    <row r="78" spans="1:1" ht="15" thickBot="1"/>
+    <row r="79" spans="1:1" ht="29.4" thickBot="1">
       <c r="A79" s="35" t="s">
         <v>55</v>
       </c>
@@ -3557,12 +3592,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="29.25" thickBot="1">
+    <row r="97" spans="1:1" ht="29.4" thickBot="1">
       <c r="A97" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="30">
+    <row r="98" spans="1:1" ht="28.8">
       <c r="A98" s="34" t="s">
         <v>313</v>
       </c>
@@ -3587,10 +3622,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -3633,7 +3668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>315</v>
       </c>
@@ -3648,7 +3683,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3703,7 +3738,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3798,7 +3833,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3958,7 +3993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="28.5">
+    <row r="79" spans="1:1" ht="28.8">
       <c r="A79" s="35" t="s">
         <v>55</v>
       </c>
@@ -4043,12 +4078,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="28.5">
+    <row r="97" spans="1:1" ht="28.8">
       <c r="A97" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="30">
+    <row r="98" spans="1:1" ht="28.8">
       <c r="A98" s="34" t="s">
         <v>328</v>
       </c>
@@ -4077,10 +4112,10 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -4123,7 +4158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75">
+    <row r="9" spans="1:1" ht="72">
       <c r="A9" s="39" t="s">
         <v>343</v>
       </c>
@@ -4138,7 +4173,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4193,7 +4228,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4288,7 +4323,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="28.5">
+    <row r="78" spans="1:1" ht="28.8">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -4533,7 +4568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="28.5">
+    <row r="96" spans="1:1" ht="28.8">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -4583,10 +4618,10 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -4644,7 +4679,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4699,7 +4734,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4794,7 +4829,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4954,8 +4989,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -5040,12 +5075,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="30">
+    <row r="97" spans="1:1" ht="28.8">
       <c r="A97" s="37" t="s">
         <v>512</v>
       </c>
@@ -5083,10 +5118,10 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -5144,7 +5179,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5235,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1">
+    <row r="25" spans="1:6" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5295,7 +5330,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5455,8 +5490,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -5541,7 +5576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -5584,10 +5619,10 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -5630,7 +5665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="150">
+    <row r="9" spans="1:1" ht="129.6">
       <c r="A9" s="39" t="s">
         <v>265</v>
       </c>
@@ -5645,7 +5680,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5700,7 +5735,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5795,7 +5830,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5955,7 +5990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="28.5">
+    <row r="78" spans="1:1" ht="28.8">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -6040,12 +6075,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="28.5">
+    <row r="96" spans="1:1" ht="28.8">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="60">
+    <row r="97" spans="1:1" ht="57.6">
       <c r="A97" s="37" t="s">
         <v>374</v>
       </c>
@@ -6086,10 +6121,10 @@
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
@@ -6132,7 +6167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6147,7 +6182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.25" thickBot="1">
+    <row r="13" spans="1:4" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6204,7 +6239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.25" thickBot="1">
+    <row r="25" spans="1:3" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6299,7 +6334,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6459,8 +6494,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -6545,7 +6580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -6587,10 +6622,10 @@
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6648,7 +6683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +6738,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6798,7 +6833,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6958,8 +6993,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -7044,7 +7079,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -7088,10 +7123,10 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -7149,7 +7184,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7204,7 +7239,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7299,7 +7334,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7459,8 +7494,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -7545,12 +7580,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="60">
+    <row r="97" spans="1:1" ht="57.6">
       <c r="A97" s="1" t="s">
         <v>517</v>
       </c>
@@ -7588,10 +7623,10 @@
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -7634,7 +7669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="45">
+    <row r="9" spans="1:1" ht="43.2">
       <c r="A9" s="1" t="s">
         <v>410</v>
       </c>
@@ -7649,7 +7684,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7704,7 +7739,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7799,7 +7834,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7954,8 +7989,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -8040,12 +8075,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="60">
+    <row r="97" spans="1:1" ht="57.6">
       <c r="A97" s="1" t="s">
         <v>518</v>
       </c>
@@ -8085,18 +8120,18 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1">
@@ -9056,12 +9091,12 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9116,8 +9151,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9172,8 +9207,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9268,8 +9303,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9424,8 +9459,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -9510,8 +9545,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -9535,12 +9570,12 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9595,8 +9630,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9651,8 +9686,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9747,8 +9782,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9903,8 +9938,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -9989,8 +10024,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -10017,12 +10052,12 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10062,7 +10097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>451</v>
       </c>
@@ -10077,8 +10112,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10133,8 +10168,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10229,8 +10264,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10385,8 +10420,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -10471,8 +10506,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -10504,12 +10539,12 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.25" thickBot="1">
+    <row r="1" spans="1:17" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10549,7 +10584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45">
+    <row r="9" spans="1:17" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>476</v>
       </c>
@@ -10612,8 +10647,8 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.25" thickBot="1">
+    <row r="12" spans="1:17" ht="15" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10668,8 +10703,8 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10764,8 +10799,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10920,8 +10955,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -11006,8 +11041,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -11034,12 +11069,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.25" thickBot="1">
+    <row r="1" spans="1:17" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11097,8 +11132,8 @@
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.25" thickBot="1">
+    <row r="12" spans="1:17" ht="15" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11153,8 +11188,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11249,8 +11284,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11405,8 +11440,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -11491,8 +11526,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -11512,16 +11547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11576,8 +11611,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11632,8 +11667,8 @@
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11728,8 +11763,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11884,8 +11919,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -11970,8 +12005,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -11997,18 +12032,18 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A98" sqref="A97:A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12050,7 +12085,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12063,8 +12098,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12076,7 +12111,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12086,7 +12121,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="73" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12096,7 +12131,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -12106,7 +12141,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
@@ -12116,11 +12151,11 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12152,7 +12187,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12202,7 +12237,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12215,8 +12250,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12371,8 +12406,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -12457,20 +12492,963 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A98" sqref="A97:A98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="73" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="73" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21">
+      <c r="A22" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="70" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="21">
+      <c r="A72" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="21">
+      <c r="A74" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A78" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21">
+      <c r="A79" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="37">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21">
+      <c r="A81" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="38">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21">
+      <c r="A83" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="38">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21">
+      <c r="A85" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21">
+      <c r="A87" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="38">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21">
+      <c r="A89" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="21">
+      <c r="A91" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21">
+      <c r="A93" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="38">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A96" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="73" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="73" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="73" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21">
+      <c r="A22" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="70" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="38" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="38" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="21">
+      <c r="A72" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="21">
+      <c r="A74" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A78" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21">
+      <c r="A79" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="37">
+        <v>13074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21">
+      <c r="A81" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="38">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21">
+      <c r="A83" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="38">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21">
+      <c r="A85" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="38">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21">
+      <c r="A87" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="38">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21">
+      <c r="A89" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="21">
+      <c r="A91" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="38">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21">
+      <c r="A93" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A96" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -12487,10 +13465,10 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -12533,7 +13511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12548,8 +13526,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12604,8 +13582,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12700,7 +13678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12855,8 +13833,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -12941,8 +13919,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
@@ -12986,12 +13964,12 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +14024,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -13101,7 +14079,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -13196,7 +14174,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13351,8 +14329,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1"/>
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -13437,13 +14415,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1"/>
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="75">
+    <row r="97" spans="1:1" ht="72">
       <c r="A97" s="37" t="s">
         <v>251</v>
       </c>
@@ -13478,10 +14456,10 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -13962,12 +14940,12 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -14025,7 +15003,7 @@
     <row r="12" spans="1:1">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
@@ -14083,7 +15061,7 @@
     <row r="24" spans="1:1">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
@@ -14178,10 +15156,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="51" t="s">
         <v>36</v>
       </c>
@@ -14339,10 +15317,10 @@
     <row r="76" spans="1:1">
       <c r="A76" s="16"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1">
+    <row r="77" spans="1:1" ht="15" thickBot="1">
       <c r="A77" s="16"/>
     </row>
-    <row r="78" spans="1:1" ht="29.25" thickBot="1">
+    <row r="78" spans="1:1" ht="29.4" thickBot="1">
       <c r="A78" s="52" t="s">
         <v>55</v>
       </c>
@@ -14427,10 +15405,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1">
+    <row r="95" spans="1:1" ht="15" thickBot="1">
       <c r="A95" s="16"/>
     </row>
-    <row r="96" spans="1:1" ht="29.25" thickBot="1">
+    <row r="96" spans="1:1" ht="29.4" thickBot="1">
       <c r="A96" s="54" t="s">
         <v>65</v>
       </c>
@@ -14460,10 +15438,10 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14521,7 +15499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -14576,7 +15554,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -14671,7 +15649,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -14826,7 +15804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="28.5">
+    <row r="78" spans="1:1" ht="28.8">
       <c r="A78" s="35" t="s">
         <v>55</v>
       </c>
@@ -14911,12 +15889,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="28.5">
+    <row r="96" spans="1:1" ht="28.8">
       <c r="A96" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="45">
+    <row r="97" spans="1:1" ht="43.2">
       <c r="A97" s="37" t="s">
         <v>287</v>
       </c>
@@ -14955,10 +15933,10 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15435,10 +16413,10 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -15496,7 +16474,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -15551,7 +16529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -15646,7 +16624,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -15806,7 +16784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="28.5">
+    <row r="79" spans="1:1" ht="28.8">
       <c r="A79" s="35" t="s">
         <v>55</v>
       </c>
@@ -15891,12 +16869,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="28.5">
+    <row r="97" spans="1:1" ht="28.8">
       <c r="A97" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="30">
+    <row r="98" spans="1:1" ht="28.8">
       <c r="A98" s="34" t="s">
         <v>298</v>
       </c>
@@ -16048,18 +17026,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16081,6 +17059,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -16094,12 +17080,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2024-06-03.xlsx
+++ b/master_table/MT_OntoWorldMap_2024-06-03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="25" activeTab="27"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="OM" sheetId="39" r:id="rId24"/>
     <sheet name="OBI" sheetId="40" r:id="rId25"/>
     <sheet name="RO" sheetId="41" r:id="rId26"/>
-    <sheet name="eNanoMapper" sheetId="42" r:id="rId27"/>
+    <sheet name="ENMO" sheetId="42" r:id="rId27"/>
     <sheet name="OEO" sheetId="44" r:id="rId28"/>
   </sheets>
   <definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="566">
   <si>
     <t>Ontology</t>
   </si>
@@ -1754,9 +1754,6 @@
     <t>cito,core,dc,doap,foaf,obo,oboInOwl,owl,rdf,rdfs,skos,subsets,swrl,swrla,swrlb,terms,xml,xsd</t>
   </si>
   <si>
-    <t>eNanoMapper</t>
-  </si>
-  <si>
     <t>Open Energy Ontology</t>
   </si>
   <si>
@@ -1791,6 +1788,42 @@
   </si>
   <si>
     <t>modular ontology. The Open Energy Ontology is an ontology for all aspects of the energy modelling domain.</t>
+  </si>
+  <si>
+    <t>ENMO</t>
+  </si>
+  <si>
+    <t>eNanoMapper Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/8139894 </t>
+  </si>
+  <si>
+    <t>https://github.com/enanomapper/ontologies</t>
+  </si>
+  <si>
+    <t>https://www.enanomapper.net/</t>
+  </si>
+  <si>
+    <t>Maintained by several EU H2020 projects (see GitHub repository linked in references)</t>
+  </si>
+  <si>
+    <t>EnanoMapper</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/enanomapper/ontologies/refs/heads/master/enanomapper.owl</t>
+  </si>
+  <si>
+    <t>CC-BY 3.0</t>
+  </si>
+  <si>
+    <t>bibo,ccont,cheminf,cheminf-core,cheminf2,chmo,cito,core,core4,dc,efo,entity_attribute,entity_attribute3,entity_quality,envo,foaf,foo,ncbitaxon,npo,obo,obo1,oboInOwl,owl,pato,patterns,pav,protege,rdf,rdfs,resource,skos,subsets,terms,uberon,uo,vann,</t>
+  </si>
+  <si>
+    <t>59129 ms</t>
+  </si>
+  <si>
+    <t>The eNanoMapper project (https://www.enanomapper.net/), NanoCommons project (https://www.nanocommons.eu/) and ACEnano project (http://acenano-project.eu/) are creating a pan-European computational infrastructure for toxicological data management for ENMs, based on semantic web standards and ontologies. This ontology is an application ontology targeting the full domain of nanomaterial safety assessment. It re-uses several other ontologies including the NPO, CHEMINF, ChEBI, and ENVO.</t>
   </si>
 </sst>
 </file>
@@ -11065,7 +11098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -12034,8 +12067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A98" sqref="A97:A98"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12263,7 +12296,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -12506,10 +12539,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A98" sqref="A97:A98"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12529,7 +12562,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -12549,7 +12582,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -12559,7 +12592,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12569,7 +12602,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1"/>
@@ -12585,7 +12618,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="73" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12595,7 +12628,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="73" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12615,7 +12648,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="73" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
@@ -12624,8 +12657,8 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>534</v>
+      <c r="A23" s="73" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -12641,7 +12674,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -12661,7 +12694,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="74" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12681,7 +12714,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>120</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -12691,7 +12724,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="71" t="s">
-        <v>283</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -12711,7 +12744,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12737,7 +12770,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -12767,7 +12800,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -12797,7 +12830,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21">
@@ -12893,7 +12926,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="37">
-        <v>7324</v>
+        <v>209015</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21">
@@ -12903,7 +12936,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="38">
-        <v>1540</v>
+        <v>29556</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21">
@@ -12913,7 +12946,7 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="38">
-        <v>899</v>
+        <v>27269</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21">
@@ -12923,7 +12956,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="38">
-        <v>58</v>
+        <v>25795</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21">
@@ -12933,7 +12966,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="38">
-        <v>673</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21">
@@ -12953,7 +12986,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="38">
-        <v>35</v>
+        <v>697</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21">
@@ -12963,7 +12996,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="38">
-        <v>137</v>
+        <v>696</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" thickBot="1"/>
@@ -12972,9 +13005,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12982,8 +13023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -13003,7 +13044,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -13023,7 +13064,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -13033,7 +13074,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -13043,7 +13084,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1"/>
@@ -13059,7 +13100,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -13069,7 +13110,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -13079,7 +13120,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -13089,7 +13130,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
@@ -13115,7 +13156,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -13155,7 +13196,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -13185,7 +13226,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -13448,7 +13489,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -16894,6 +16935,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -17025,15 +17075,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17041,6 +17082,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17054,14 +17103,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
